--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1818188.465409225</v>
+        <v>1880262.726761611</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453906</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3505190.11917867</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7167541.393173853</v>
+        <v>7597650.910114408</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>401.7866276684247</v>
       </c>
       <c r="F2" t="n">
-        <v>112.2677038819857</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>22.88282737275481</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>71.81480120941495</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>387.9237459840447</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
@@ -908,7 +910,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.210602693498094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>171.3882345189199</v>
       </c>
       <c r="Y7" t="n">
-        <v>115.2839811962485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1145,7 +1147,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>55.28822669122424</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -1187,16 +1189,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>346.8874108458897</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -1357,7 +1359,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>181.8006211200603</v>
+        <v>102.4311969685996</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>336.8764674113135</v>
+        <v>364.054132580644</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -1433,10 +1435,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>65.42520756919177</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059088</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1613,7 +1615,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>70.0357002998542</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1625,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1660,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>217.6137824053168</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -1828,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>65.42520756919177</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>269.1075062414814</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1862,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>157.4229911737221</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>142.6473018196747</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>8.626402233657119</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -2059,10 +2061,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2093,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2248,16 +2250,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>198.7217388170288</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>65.31383608752344</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2326,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>53.20093248929918</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2476,25 +2478,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>42.43741174507669</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>75.95794553299366</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>257.7677368882639</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>334.0755358138493</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>68.38398514345504</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -2725,13 +2727,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -2767,7 +2769,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>98.94574135710778</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2801,10 +2803,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>42.43741174507669</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>225.3641850668067</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3187,25 +3189,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>164.5078794940942</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3275,10 +3277,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>378.9769832968749</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>257.7677368882639</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3424,22 +3426,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.421695385058</v>
+        <v>8.032231840864787</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>351.957370161717</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3515,10 +3517,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3664,7 +3666,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>264.0191587720344</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>175.4647255438869</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3749,10 +3751,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>367.6236394854355</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82170770786936</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3961,10 +3963,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>180.6077930059088</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>301.7436916093909</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -4031,19 +4033,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>243.833185100996</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>111.4116053354207</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>144.2018606410491</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1895.99774560732</v>
+        <v>1681.136832804107</v>
       </c>
       <c r="C2" t="n">
-        <v>1485.87315492059</v>
+        <v>1675.052646157781</v>
       </c>
       <c r="D2" t="n">
-        <v>1081.40922501365</v>
+        <v>1270.588716250841</v>
       </c>
       <c r="E2" t="n">
-        <v>667.0690095305467</v>
+        <v>864.7436377978871</v>
       </c>
       <c r="F2" t="n">
-        <v>553.6672884376319</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G2" t="n">
-        <v>144.9390043304641</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
-        <v>144.9390043304641</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>596.7467427565767</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>1309.338142568815</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M2" t="n">
-        <v>1883.183960193295</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N2" t="n">
-        <v>2608.201075581568</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O2" t="n">
-        <v>2608.201075581568</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P2" t="n">
-        <v>2608.201075581568</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2707.155598323719</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>2707.155598323719</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>2707.155598323719</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>2707.155598323719</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>2707.155598323719</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>2306.218925271809</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1561.703728412895</v>
+        <v>720.5959275161367</v>
       </c>
       <c r="C3" t="n">
-        <v>1427.70865716184</v>
+        <v>586.6008562650825</v>
       </c>
       <c r="D3" t="n">
-        <v>1310.811499381233</v>
+        <v>469.7036984844749</v>
       </c>
       <c r="E3" t="n">
-        <v>1190.318683373561</v>
+        <v>349.2108824768029</v>
       </c>
       <c r="F3" t="n">
-        <v>1081.358803556065</v>
+        <v>240.2510026593075</v>
       </c>
       <c r="G3" t="n">
-        <v>974.3686908704041</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>903.6214779061202</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>882.8728865263604</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>1075.685744088994</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>1075.685744088994</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="L3" t="n">
-        <v>1075.685744088994</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="M3" t="n">
-        <v>1284.295115295822</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N3" t="n">
-        <v>1284.295115295822</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O3" t="n">
-        <v>1988.252205841717</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P3" t="n">
-        <v>2549.958098330247</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2899.80256301423</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>2821.372072491169</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>2662.030208678177</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>2464.679397816396</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>2250.96787080943</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>2037.734702545758</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1861.408720684651</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1702.006761048481</v>
+        <v>860.8989601517234</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>534.9397325936271</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="C4" t="n">
-        <v>534.9397325936271</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="D4" t="n">
-        <v>375.4450879165371</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="E4" t="n">
-        <v>375.4450879165371</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="F4" t="n">
-        <v>375.4450879165371</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>208.1946968420806</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>58.5872416475372</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1502.713419943787</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1316.321651823697</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1243.781448581864</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>960.9833011279882</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>960.9833011279882</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W4" t="n">
-        <v>960.9833011279882</v>
+        <v>498.0829448374625</v>
       </c>
       <c r="X4" t="n">
-        <v>722.6394389876715</v>
+        <v>498.0829448374625</v>
       </c>
       <c r="Y4" t="n">
-        <v>722.6394389876715</v>
+        <v>498.0829448374625</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2117.27467387779</v>
+        <v>1696.412113819451</v>
       </c>
       <c r="C5" t="n">
-        <v>1707.15008319106</v>
+        <v>1286.287523132721</v>
       </c>
       <c r="D5" t="n">
-        <v>1302.686153284121</v>
+        <v>881.8235932257816</v>
       </c>
       <c r="E5" t="n">
-        <v>888.3459378010175</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F5" t="n">
-        <v>467.315525754705</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>312.7727131152915</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>850.932214224331</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>850.932214224331</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>1435.413521245312</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>1435.413521245312</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O5" t="n">
-        <v>2079.044377662417</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P5" t="n">
-        <v>2608.201075581568</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>2528.718684545813</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>2527.495853542279</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>251.4000992101705</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>707.2063554754692</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>1021.715362905529</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>1021.715362905529</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N6" t="n">
-        <v>1021.715362905529</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.672453451424</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P6" t="n">
-        <v>1725.672453451424</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2075.516918135407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1147.921091948674</v>
+        <v>322.7422574146847</v>
       </c>
       <c r="C7" t="n">
-        <v>976.8277195103904</v>
+        <v>322.7422574146847</v>
       </c>
       <c r="D7" t="n">
-        <v>817.3330748333003</v>
+        <v>322.7422574146847</v>
       </c>
       <c r="E7" t="n">
-        <v>656.4222597016197</v>
+        <v>322.7422574146847</v>
       </c>
       <c r="F7" t="n">
-        <v>491.791133812211</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G7" t="n">
-        <v>324.5407427377544</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H7" t="n">
-        <v>174.9332875432111</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1502.713419943787</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1502.713419943787</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1502.713419943787</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>1502.713419943787</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>1502.713419943787</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>1502.713419943787</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>1264.36955780347</v>
+        <v>322.7422574146847</v>
       </c>
       <c r="Y7" t="n">
-        <v>1147.921091948674</v>
+        <v>322.7422574146847</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2161.65334345333</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>1751.528752766601</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>1347.064822859661</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>932.7246073765577</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>511.6941953302453</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>455.8475017027461</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>144.9390043304641</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="J8" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="K8" t="n">
-        <v>596.7467427565767</v>
+        <v>564.8467047942806</v>
       </c>
       <c r="L8" t="n">
-        <v>1309.338142568815</v>
+        <v>1277.438104606519</v>
       </c>
       <c r="M8" t="n">
-        <v>1675.188269069436</v>
+        <v>2053.756695598272</v>
       </c>
       <c r="N8" t="n">
-        <v>2400.205384457709</v>
+        <v>2806.937712236891</v>
       </c>
       <c r="O8" t="n">
-        <v>2400.205384457709</v>
+        <v>3450.568568653995</v>
       </c>
       <c r="P8" t="n">
-        <v>2929.36208237686</v>
+        <v>3979.725266573147</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.886273368439</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.886273368439</v>
       </c>
       <c r="S8" t="n">
-        <v>2794.081007170961</v>
+        <v>4165.60519816254</v>
       </c>
       <c r="T8" t="n">
-        <v>2571.87452311782</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>2571.87452311782</v>
+        <v>3686.338222368909</v>
       </c>
       <c r="V8" t="n">
-        <v>2571.87452311782</v>
+        <v>3686.338222368909</v>
       </c>
       <c r="W8" t="n">
-        <v>2571.87452311782</v>
+        <v>3302.577921504077</v>
       </c>
       <c r="X8" t="n">
-        <v>2571.87452311782</v>
+        <v>2952.18659741732</v>
       </c>
       <c r="Y8" t="n">
-        <v>2571.87452311782</v>
+        <v>2952.18659741732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>764.8485673539033</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>630.8534961028489</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>513.9563383222413</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>393.4635223145693</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>284.5036424970739</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>177.5135298114126</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="K9" t="n">
-        <v>514.3934979128359</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="L9" t="n">
-        <v>514.3934979128359</v>
+        <v>747.105897386657</v>
       </c>
       <c r="M9" t="n">
-        <v>1193.526080325524</v>
+        <v>747.105897386657</v>
       </c>
       <c r="N9" t="n">
-        <v>1193.526080325524</v>
+        <v>866.8439382834447</v>
       </c>
       <c r="O9" t="n">
-        <v>1193.526080325524</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="P9" t="n">
-        <v>1755.231972814054</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2024.516911432178</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1667.824236757405</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1454.112709750439</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>905.1515999894899</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.5872416475372</v>
+        <v>532.9517884784161</v>
       </c>
       <c r="C10" t="n">
-        <v>58.5872416475372</v>
+        <v>361.8584160401326</v>
       </c>
       <c r="D10" t="n">
-        <v>58.5872416475372</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="E10" t="n">
-        <v>58.5872416475372</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="F10" t="n">
-        <v>58.5872416475372</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="G10" t="n">
-        <v>58.5872416475372</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="H10" t="n">
-        <v>58.5872416475372</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1502.713419943787</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1316.321651823697</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1316.321651823697</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1033.523504369821</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>759.6377593093434</v>
+        <v>1341.530877027741</v>
       </c>
       <c r="W10" t="n">
-        <v>480.5680948182178</v>
+        <v>1062.461212536615</v>
       </c>
       <c r="X10" t="n">
-        <v>242.2242326779012</v>
+        <v>824.1173503962984</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.5872416475372</v>
+        <v>720.6514948724605</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1598.424475096592</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C11" t="n">
-        <v>1188.299884409862</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D11" t="n">
-        <v>783.8359545029225</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>369.4957390198192</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>369.4957390198192</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>369.4957390198192</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K11" t="n">
-        <v>123.1055953709714</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
-        <v>835.6969951832094</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1560.714110571482</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2285.731225959755</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2929.36208237686</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>2929.36208237686</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>2672.30159063637</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>2322.464035972851</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>1938.70373510802</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>1938.70373510802</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>1938.70373510802</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>251.4000992101705</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>339.5671661438627</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>1000.655338063151</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>1725.672453451424</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N12" t="n">
-        <v>1725.672453451424</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O12" t="n">
-        <v>1725.672453451424</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>1725.672453451424</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2075.516918135407</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.5872416475372</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="C13" t="n">
-        <v>58.5872416475372</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="D13" t="n">
-        <v>58.5872416475372</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5872416475372</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="F13" t="n">
-        <v>58.5872416475372</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="G13" t="n">
-        <v>58.5872416475372</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1316.321651823697</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1076.772912800399</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U13" t="n">
-        <v>793.9747653465236</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V13" t="n">
-        <v>520.0890202860455</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W13" t="n">
-        <v>241.0193557949199</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X13" t="n">
-        <v>58.5872416475372</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="Y13" t="n">
-        <v>58.5872416475372</v>
+        <v>275.6758118380055</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2170.93785006591</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C14" t="n">
-        <v>1760.81325937918</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D14" t="n">
-        <v>1356.349329472241</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E14" t="n">
-        <v>1285.606197856226</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F14" t="n">
-        <v>864.5757858099139</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G14" t="n">
-        <v>455.8475017027461</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>144.9390043304641</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>312.7727131152915</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K14" t="n">
-        <v>850.932214224331</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
-        <v>1563.523614036569</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1563.523614036569</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>1964.570219164463</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2608.201075581568</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>2608.201075581568</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>2794.081007170961</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>2571.87452311782</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U14" t="n">
-        <v>2571.87452311782</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V14" t="n">
-        <v>2571.87452311782</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W14" t="n">
-        <v>2571.87452311782</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X14" t="n">
-        <v>2571.87452311782</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y14" t="n">
-        <v>2170.93785006591</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>58.5872416475372</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="M15" t="n">
-        <v>783.60435703581</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="N15" t="n">
-        <v>1401.119346952143</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>389.1752587629107</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C16" t="n">
-        <v>218.0818863246272</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1587.986138268387</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1587.986138268387</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1587.986138268387</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>1368.174236848875</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V16" t="n">
-        <v>1094.288491788397</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W16" t="n">
-        <v>815.2188272972717</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X16" t="n">
-        <v>576.8749651569551</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="Y16" t="n">
-        <v>576.8749651569551</v>
+        <v>209.5897435862967</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5552,13 +5554,13 @@
         <v>3920.005762921231</v>
       </c>
       <c r="W17" t="n">
-        <v>3536.245462056399</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>3135.602064225352</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2734.665391173442</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.1958163843295</v>
+        <v>237.3318813468599</v>
       </c>
       <c r="C19" t="n">
-        <v>416.1958163843295</v>
+        <v>237.3318813468599</v>
       </c>
       <c r="D19" t="n">
-        <v>416.1958163843295</v>
+        <v>237.3318813468599</v>
       </c>
       <c r="E19" t="n">
-        <v>416.1958163843295</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>251.5646904949208</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5698,25 +5700,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.429368843485</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U19" t="n">
-        <v>828.6312213896092</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V19" t="n">
-        <v>828.6312213896092</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="W19" t="n">
-        <v>828.6312213896092</v>
+        <v>462.0675799580952</v>
       </c>
       <c r="X19" t="n">
-        <v>828.6312213896092</v>
+        <v>462.0675799580952</v>
       </c>
       <c r="Y19" t="n">
-        <v>603.8955227783739</v>
+        <v>237.3318813468599</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5841,7 +5843,7 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.7425299376769</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C22" t="n">
-        <v>413.6491574993933</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D22" t="n">
-        <v>254.1545128223033</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5947,13 +5949,13 @@
         <v>1436.250826191383</v>
       </c>
       <c r="W22" t="n">
-        <v>1235.521797083273</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="X22" t="n">
-        <v>997.1779349429565</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="Y22" t="n">
-        <v>772.4422363317212</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
         <v>1233.910891216385</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6078,7 +6080,7 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4011.405617385543</v>
+        <v>136.1097701603972</v>
       </c>
       <c r="C25" t="n">
-        <v>4011.405617385543</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3851.910972708453</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3691.000157576773</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3526.369031687364</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3359.118640612907</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3209.511185418364</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U25" t="n">
-        <v>4662.18488453114</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V25" t="n">
-        <v>4662.18488453114</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W25" t="n">
-        <v>4662.18488453114</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X25" t="n">
-        <v>4423.841022390823</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y25" t="n">
-        <v>4199.105323779588</v>
+        <v>323.8094765544416</v>
       </c>
     </row>
     <row r="26">
@@ -6251,19 +6253,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W26" t="n">
-        <v>3697.79927886809</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X26" t="n">
         <v>3360.349242692484</v>
@@ -6312,7 +6314,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N27" t="n">
         <v>1435.775802995229</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>487.8603711798485</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="C28" t="n">
-        <v>487.8603711798485</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D28" t="n">
-        <v>418.7856387117121</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E28" t="n">
-        <v>257.8748235800315</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S28" t="n">
-        <v>1436.250826191383</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T28" t="n">
-        <v>1196.702087168085</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U28" t="n">
-        <v>913.9039397142094</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="V28" t="n">
-        <v>913.9039397142094</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="W28" t="n">
-        <v>913.9039397142094</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="X28" t="n">
-        <v>675.5600775738928</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="Y28" t="n">
-        <v>675.5600775738928</v>
+        <v>4051.026465773143</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G29" t="n">
         <v>490.5039577458317</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6552,7 +6554,7 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>745.5306744632587</v>
+        <v>136.1097701603972</v>
       </c>
       <c r="C31" t="n">
-        <v>745.5306744632587</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>586.0360297861687</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
         <v>93.2436976906228</v>
@@ -6646,25 +6648,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>1208.610235214811</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V31" t="n">
-        <v>1208.610235214811</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W31" t="n">
-        <v>1208.610235214811</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X31" t="n">
-        <v>970.266373074494</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y31" t="n">
-        <v>745.5306744632587</v>
+        <v>323.8094765544416</v>
       </c>
     </row>
     <row r="32">
@@ -6783,13 +6785,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>1266.074801429505</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N33" t="n">
-        <v>2139.732893541123</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3458.450207833939</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C34" t="n">
-        <v>3292.280632587379</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D34" t="n">
-        <v>3132.785987910289</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E34" t="n">
-        <v>3132.785987910289</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V34" t="n">
-        <v>4388.299139470661</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W34" t="n">
-        <v>4109.229474979536</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X34" t="n">
-        <v>3870.885612839219</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y34" t="n">
-        <v>3646.149914227984</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>873.3089913790386</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
         <v>490.5039577458317</v>
@@ -6935,7 +6937,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7016,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>704.368908940975</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>704.368908940975</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>1578.027001052593</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O36" t="n">
-        <v>1578.027001052593</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="P36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1182.57754799176</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="C37" t="n">
-        <v>1011.484175553476</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S37" t="n">
-        <v>1537.369875986873</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T37" t="n">
-        <v>1537.369875986873</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="U37" t="n">
-        <v>1537.369875986873</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="V37" t="n">
-        <v>1537.369875986873</v>
+        <v>3962.358632327273</v>
       </c>
       <c r="W37" t="n">
-        <v>1537.369875986873</v>
+        <v>3683.288967836147</v>
       </c>
       <c r="X37" t="n">
-        <v>1537.369875986873</v>
+        <v>3444.945105695831</v>
       </c>
       <c r="Y37" t="n">
-        <v>1370.277254385804</v>
+        <v>3436.831740200008</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2494.579294402201</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H38" t="n">
         <v>179.5954603735497</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4439.978400477999</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4090.140845814479</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3706.380544949648</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3305.7371471186</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2904.80047406669</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7262,10 @@
         <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>1597.308950304478</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N39" t="n">
-        <v>2139.732893541123</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3796.671692444119</v>
+        <v>4072.512383016883</v>
       </c>
       <c r="C40" t="n">
-        <v>3625.578320005835</v>
+        <v>3901.419010578599</v>
       </c>
       <c r="D40" t="n">
-        <v>3625.578320005835</v>
+        <v>3741.924365901509</v>
       </c>
       <c r="E40" t="n">
-        <v>3464.667504874155</v>
+        <v>3581.013550769829</v>
       </c>
       <c r="F40" t="n">
-        <v>3300.036378984746</v>
+        <v>3416.38242488042</v>
       </c>
       <c r="G40" t="n">
-        <v>3132.785987910289</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.785987910289</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I40" t="n">
         <v>3132.785987910289</v>
@@ -7357,25 +7359,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S40" t="n">
-        <v>4475.79311641105</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T40" t="n">
-        <v>4475.79311641105</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U40" t="n">
-        <v>4475.79311641105</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V40" t="n">
-        <v>4475.79311641105</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W40" t="n">
-        <v>4209.107097449399</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="X40" t="n">
-        <v>4209.107097449399</v>
+        <v>4484.947788022163</v>
       </c>
       <c r="Y40" t="n">
-        <v>3984.371398838163</v>
+        <v>4260.212089410928</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1287.51597772431</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C41" t="n">
-        <v>877.39138703758</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D41" t="n">
-        <v>472.9274571306405</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E41" t="n">
-        <v>58.5872416475372</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F41" t="n">
-        <v>58.5872416475372</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G41" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>312.7727131152915</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>850.932214224331</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>1563.523614036569</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1563.523614036569</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>1756.574528040604</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2400.205384457709</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>2929.36208237686</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>2883.077529136588</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>2883.077529136588</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>2499.317228271756</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>2098.673830440709</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>1697.737157388799</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>719.6754135668255</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>1444.692528955098</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N42" t="n">
-        <v>1444.692528955098</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1502.713419943787</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1316.321651823697</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1076.772912800399</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>793.9747653465236</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>520.0890202860455</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>241.0193557949199</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>241.0193557949199</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y43" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1914.170633546283</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>1504.046042859553</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1199.254435173299</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1199.254435173299</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>778.224023126987</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>369.4957390198192</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>596.7467427565767</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1309.338142568815</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2034.355257957088</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2034.355257957088</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2608.201075581568</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2608.201075581568</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2794.081007170961</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>2571.87452311782</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>2314.81403137733</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V44" t="n">
-        <v>2314.81403137733</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>2314.81403137733</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>1914.170633546283</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>1914.170633546283</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>676.1022315638701</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N45" t="n">
-        <v>1401.119346952143</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1089.364694596674</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C46" t="n">
-        <v>976.8277195103904</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>817.3330748333003</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>656.4222597016197</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>491.791133812211</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>324.5407427377544</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>174.9332875432111</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1587.986138268387</v>
+        <v>1476.984149219504</v>
       </c>
       <c r="T46" t="n">
-        <v>1587.986138268387</v>
+        <v>1476.984149219504</v>
       </c>
       <c r="U46" t="n">
-        <v>1587.986138268387</v>
+        <v>1194.186001765628</v>
       </c>
       <c r="V46" t="n">
-        <v>1314.100393207909</v>
+        <v>1194.186001765628</v>
       </c>
       <c r="W46" t="n">
-        <v>1314.100393207909</v>
+        <v>915.1163372745027</v>
       </c>
       <c r="X46" t="n">
-        <v>1314.100393207909</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y46" t="n">
-        <v>1089.364694596674</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>672.9324644817731</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>825.2528113508343</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8058,25 +8060,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>332.1773130131622</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>268.2808203109716</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>683.6753830640966</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>594.6194560602019</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>373.800389901819</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>93.75312630912927</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,25 +8455,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7318453389136</v>
+        <v>572.8020253569665</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>462.8358067809048</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8532,25 +8534,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>743.5567912259809</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>174.1409094511113</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3064439393123</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>144.8834261519813</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8933,22 +8935,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>498.0098716938861</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,22 +9011,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>491.4496229341746</v>
       </c>
       <c r="M15" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>676.9459084607529</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9489,10 +9491,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9726,10 +9728,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9960,10 +9962,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N27" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
@@ -10200,10 +10202,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10431,16 +10433,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>574.4763360814417</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10604,7 +10606,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10662,16 +10664,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>478.652254808545</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
@@ -10680,7 +10682,7 @@
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>387.4455168657486</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10841,7 +10843,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10908,13 +10910,13 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>601.0963663600584</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>574.6635313430244</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11066,10 +11068,10 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>287.9132139930177</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11078,10 +11080,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,16 +11144,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>724.8059320736758</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11303,22 +11305,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>672.8320156505107</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,13 +11384,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>681.3167988054204</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>69.24250045653105</v>
+        <v>42.06483528720059</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23433,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>82.68617307340614</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300461</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>340.1611130284181</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23671,7 +23673,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>62.35638357402024</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>170.5352159497217</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>137.0114616263631</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23792,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>222.499706682461</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23896,16 +23898,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>16.65440516068904</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>156.9514849300549</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>77.55722902918558</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>157.1745055375995</v>
       </c>
     </row>
     <row r="23">
@@ -24212,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>126.945026968824</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>39.22463990372344</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,13 +24420,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24491,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>88.57144222862024</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>62.56142803888764</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>89.51571308686404</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>181.0244246222293</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24664,7 +24666,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -24689,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>37.84312462897441</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>126.945026968824</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
@@ -24886,19 +24888,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>54.60598091253041</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>4.874559219806457</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25163,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>25.66401796922122</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25202,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>88.57144222862024</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.06664624006493</v>
+        <v>214.4561097842581</v>
       </c>
     </row>
     <row r="38">
@@ -25391,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>54.06597461814556</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25403,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -25609,10 +25611,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>12.25980907417994</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>60.4956979750265</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25637,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>208.6681791152156</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.8805486192141</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="44">
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>98.67559899847919</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25919,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.97083337847998</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26073,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>40.32598979783972</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490022.5377643649</v>
+        <v>637227.0685772061</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490022.537764365</v>
+        <v>637227.0685772062</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>637227.068577206</v>
+        <v>637227.0685772061</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>637227.068577206</v>
+        <v>637227.0685772062</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>637227.068577206</v>
+        <v>637227.0685772059</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>637227.068577206</v>
+        <v>637227.0685772062</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>637227.0685772061</v>
+        <v>637227.068577206</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>637227.0685772061</v>
+        <v>637227.0685772062</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>637227.068577206</v>
+        <v>637227.0685772061</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490022.5377643648</v>
+        <v>637227.0685772061</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490022.5377643648</v>
+        <v>637227.0685772062</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423494.221884388</v>
+        <v>423494.2218843881</v>
       </c>
       <c r="C2" t="n">
-        <v>423494.2218843881</v>
+        <v>423494.2218843882</v>
       </c>
       <c r="D2" t="n">
         <v>423494.2218843881</v>
       </c>
       <c r="E2" t="n">
-        <v>289558.7723153068</v>
+        <v>376543.2677956218</v>
       </c>
       <c r="F2" t="n">
-        <v>289558.7723153068</v>
+        <v>376543.2677956218</v>
       </c>
       <c r="G2" t="n">
         <v>376543.2677956219</v>
       </c>
       <c r="H2" t="n">
-        <v>376543.267795622</v>
+        <v>376543.2677956219</v>
       </c>
       <c r="I2" t="n">
         <v>376543.2677956219</v>
       </c>
       <c r="J2" t="n">
+        <v>376543.2677956218</v>
+      </c>
+      <c r="K2" t="n">
         <v>376543.2677956219</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>376543.267795622</v>
       </c>
-      <c r="L2" t="n">
-        <v>376543.2677956221</v>
-      </c>
       <c r="M2" t="n">
+        <v>376543.2677956219</v>
+      </c>
+      <c r="N2" t="n">
         <v>376543.267795622</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>376543.2677956219</v>
       </c>
-      <c r="O2" t="n">
-        <v>289558.7723153066</v>
-      </c>
       <c r="P2" t="n">
-        <v>289558.7723153067</v>
+        <v>376543.267795622</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.9541809342</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647528</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.2647740474</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118142.4647237391</v>
+        <v>155118.3712081971</v>
       </c>
       <c r="C4" t="n">
-        <v>118142.4647237391</v>
+        <v>155118.3712081971</v>
       </c>
       <c r="D4" t="n">
-        <v>118142.4647237391</v>
+        <v>57848.94447198561</v>
       </c>
       <c r="E4" t="n">
-        <v>533.3187768863875</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="F4" t="n">
-        <v>533.3187768863874</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="G4" t="n">
         <v>738.1279301446466</v>
@@ -26448,16 +26450,16 @@
         <v>738.1279301446466</v>
       </c>
       <c r="M4" t="n">
-        <v>738.1279301446464</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="N4" t="n">
+        <v>738.1279301446465</v>
+      </c>
+      <c r="O4" t="n">
         <v>738.1279301446466</v>
       </c>
-      <c r="O4" t="n">
-        <v>533.3187768863874</v>
-      </c>
       <c r="P4" t="n">
-        <v>533.3187768863874</v>
+        <v>738.1279301446466</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>99001.07135520027</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18226.29877457453</v>
+        <v>28051.27570457943</v>
       </c>
       <c r="C6" t="n">
-        <v>227197.8535085208</v>
+        <v>203006.7855976936</v>
       </c>
       <c r="D6" t="n">
-        <v>227197.8535085207</v>
+        <v>94816.73714713374</v>
       </c>
       <c r="E6" t="n">
-        <v>244499.1498862922</v>
+        <v>277970.9754396696</v>
       </c>
       <c r="F6" t="n">
-        <v>244499.1498862922</v>
+        <v>304939.9296206038</v>
       </c>
       <c r="G6" t="n">
-        <v>186204.74518849</v>
+        <v>304939.929620604</v>
       </c>
       <c r="H6" t="n">
         <v>304939.929620604</v>
       </c>
       <c r="I6" t="n">
+        <v>304939.929620604</v>
+      </c>
+      <c r="J6" t="n">
+        <v>168345.1288147089</v>
+      </c>
+      <c r="K6" t="n">
         <v>304939.9296206039</v>
       </c>
-      <c r="J6" t="n">
-        <v>113327.4264502511</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>164940.6187558513</v>
+      </c>
+      <c r="M6" t="n">
+        <v>282430.6648465566</v>
+      </c>
+      <c r="N6" t="n">
         <v>304939.929620604</v>
       </c>
-      <c r="L6" t="n">
-        <v>304939.9296206041</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>304939.929620604</v>
       </c>
-      <c r="N6" t="n">
-        <v>304939.9296206039</v>
-      </c>
-      <c r="O6" t="n">
-        <v>244499.149886292</v>
-      </c>
       <c r="P6" t="n">
-        <v>244499.1498862921</v>
+        <v>304939.929620604</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720842</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067513</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720842</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067512</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720842</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067513</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.410185659847571</v>
       </c>
       <c r="F2" t="n">
-        <v>304.5524040438636</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>162.9398819573491</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>165.33845042365</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27599,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>18.19522188379983</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -27679,10 +27681,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>395.7167036278927</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27776,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>64.5721889999935</v>
       </c>
       <c r="Y7" t="n">
-        <v>107.2043604288744</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>349.3527745748719</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>49.74955300684724</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -28029,7 +28031,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>40.68772050506263</v>
+        <v>120.0571446565234</v>
       </c>
     </row>
     <row r="11">
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>579.6422400247276</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>276.3515302285468</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>210.7165365725542</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>590.3851586070512</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>317.68586609097</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>543.5954556656965</v>
+        <v>483.6656356837494</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>369.5455823238593</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>685.9925074875634</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>120.9475160573613</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K11" t="n">
-        <v>65.17005426609514</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>89.05764336736587</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35653,22 +35655,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>405.0975809372667</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="M15" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>623.7525150670029</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36209,10 +36211,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36446,10 +36448,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N27" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
@@ -36920,10 +36922,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37151,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>516.9120523430242</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37382,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>422.5377309976959</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
@@ -37400,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37628,13 +37630,13 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>547.9029729663084</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>516.9120523430244</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37786,10 +37788,10 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>195.0009232363984</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -37798,10 +37800,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>667.0544530736757</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38023,22 +38025,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>579.6422400247276</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>623.7525150670029</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1880262.726761611</v>
+        <v>1878950.081306032</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029742</v>
+        <v>5301029.811029741</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789206</v>
+        <v>2166967.111789205</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>401.7866276684247</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>381.8047781162001</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.88282737275481</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.594139456674</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>387.9237459840447</v>
+        <v>390.550599122546</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>4.641001266096112</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -1119,7 +1119,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>171.3882345189199</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>346.8874108458897</v>
+        <v>0.5482317290047285</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1299,16 +1299,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
-        <v>102.4311969685996</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>364.054132580644</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1387,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>85.2997057160983</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1423,7 +1423,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.42520756919177</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="14">
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>65.42520756919177</v>
+        <v>37.91951667043864</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>407.1136161557494</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>157.4229911737221</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>142.6473018196747</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -2064,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>9.336922070990861</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2149,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>173.8596899362583</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -2247,10 +2247,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>4.867076336079392</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.31383608752344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4066896505621</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>42.43741174507669</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -2541,10 +2541,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>149.845198710546</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>97.46748333863208</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>257.7677368882639</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>98.94574135710778</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2803,16 +2803,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2952,13 +2952,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>42.43741174507669</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>216.2117736552723</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>22.92681701721074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>343.5575398289572</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>257.7677368882639</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>62.39359293573199</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.032231840864787</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>209.3277174905203</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3666,13 +3666,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>79.1983692541264</v>
       </c>
       <c r="X40" t="n">
-        <v>175.4647255438869</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3751,16 +3751,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>119.8051733265735</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3994,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>219.2279701699388</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>243.833185100996</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>144.2018606410493</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>144.2018606410491</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.136832804107</v>
+        <v>1696.412113819451</v>
       </c>
       <c r="C2" t="n">
-        <v>1675.052646157781</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="D2" t="n">
-        <v>1270.588716250841</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E2" t="n">
-        <v>864.7436377978871</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F2" t="n">
-        <v>847.7536297919787</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960205</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962253</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4375,7 +4375,7 @@
         <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1687.317608428192</v>
+        <v>1702.592889443536</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161367</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650825</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844749</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768029</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593075</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
         <v>133.260889973646</v>
@@ -4406,31 +4406,31 @@
         <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>508.1659581184966</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="L3" t="n">
-        <v>1025.008892784822</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.008892784822</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.851827451147</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4454,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517234</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>474.9689777942758</v>
+        <v>380.1088491423421</v>
       </c>
       <c r="C4" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="D4" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="E4" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>777.1526093285881</v>
+        <v>1309.957780779064</v>
       </c>
       <c r="W4" t="n">
-        <v>498.0829448374625</v>
+        <v>1030.888116287938</v>
       </c>
       <c r="X4" t="n">
-        <v>498.0829448374625</v>
+        <v>792.5442541476218</v>
       </c>
       <c r="Y4" t="n">
-        <v>498.0829448374625</v>
+        <v>567.8085555363865</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1696.412113819451</v>
+        <v>80.25049765783463</v>
       </c>
       <c r="C5" t="n">
-        <v>1286.287523132721</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D5" t="n">
-        <v>881.8235932257816</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E5" t="n">
-        <v>467.4833777426783</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F5" t="n">
         <v>46.45296569636579</v>
@@ -4576,7 +4576,7 @@
         <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N5" t="n">
         <v>1075.450954962253</v>
@@ -4597,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>474.7460523270731</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4649,25 +4649,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147451</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>322.7422574146847</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>322.7422574146847</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>322.7422574146847</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>322.7422574146847</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1331.615243227154</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.817095773278</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>774.9313507128002</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>495.8616862216745</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X7" t="n">
-        <v>322.7422574146847</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y7" t="n">
-        <v>322.7422574146847</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4801,49 +4801,49 @@
         <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>86.01772546736878</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>564.8467047942806</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1277.438104606519</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>2053.756695598272</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>2806.937712236891</v>
+        <v>3120.453705486772</v>
       </c>
       <c r="O8" t="n">
-        <v>3450.568568653995</v>
+        <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
-        <v>3979.725266573147</v>
+        <v>4293.241259823028</v>
       </c>
       <c r="Q8" t="n">
-        <v>4300.886273368439</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="R8" t="n">
-        <v>4300.886273368439</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4165.60519816254</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
         <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>3686.338222368909</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>3686.338222368909</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>3302.577921504077</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
         <v>2952.18659741732</v>
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>764.8485673539033</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>630.8534961028489</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>513.9563383222413</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>393.4635223145693</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>284.5036424970739</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>177.5135298114126</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
         <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736878</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>86.01772546736878</v>
+        <v>278.830583030002</v>
       </c>
       <c r="L9" t="n">
-        <v>747.105897386657</v>
+        <v>278.830583030002</v>
       </c>
       <c r="M9" t="n">
-        <v>747.105897386657</v>
+        <v>278.830583030002</v>
       </c>
       <c r="N9" t="n">
-        <v>866.8439382834447</v>
+        <v>1152.48867514162</v>
       </c>
       <c r="O9" t="n">
-        <v>1570.801028829339</v>
+        <v>1856.445765687514</v>
       </c>
       <c r="P9" t="n">
-        <v>2132.506921317869</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="Q9" t="n">
-        <v>2132.506921317869</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>2024.516911432178</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
         <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1667.824236757405</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1454.112709750439</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
         <v>1240.879541486767</v>
@@ -4928,7 +4928,7 @@
         <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>905.1515999894899</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.9517884784161</v>
+        <v>1175.351575768505</v>
       </c>
       <c r="C10" t="n">
-        <v>361.8584160401326</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="D10" t="n">
-        <v>202.3637713630426</v>
+        <v>844.7635586531319</v>
       </c>
       <c r="E10" t="n">
-        <v>202.3637713630426</v>
+        <v>683.8527435214513</v>
       </c>
       <c r="F10" t="n">
-        <v>202.3637713630426</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="G10" t="n">
-        <v>202.3637713630426</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
         <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
         <v>100.1002748725793</v>
@@ -4998,16 +4998,16 @@
         <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>1341.530877027741</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>1062.461212536615</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="X10" t="n">
-        <v>824.1173503962984</v>
+        <v>1587.786980773785</v>
       </c>
       <c r="Y10" t="n">
-        <v>720.6514948724605</v>
+        <v>1363.05128216255</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2144.727460069145</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C11" t="n">
-        <v>1734.602869382415</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D11" t="n">
-        <v>1734.602869382415</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E11" t="n">
-        <v>1320.262653899312</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F11" t="n">
-        <v>899.2322418529996</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G11" t="n">
-        <v>490.5039577458317</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H11" t="n">
         <v>179.5954603735497</v>
@@ -5041,10 +5041,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5071,22 +5071,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N12" t="n">
-        <v>1435.775802995229</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>275.6758118380055</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>275.6758118380055</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>275.6758118380055</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>275.6758118380055</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>275.6758118380055</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>275.6758118380055</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V13" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W13" t="n">
-        <v>275.6758118380055</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X13" t="n">
-        <v>275.6758118380055</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y13" t="n">
-        <v>275.6758118380055</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5357,25 +5357,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>179.8613846619692</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>635.6676409272679</v>
       </c>
       <c r="L15" t="n">
-        <v>524.2254458227151</v>
+        <v>1296.755812846556</v>
       </c>
       <c r="M15" t="n">
-        <v>524.2254458227151</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N15" t="n">
-        <v>524.2254458227151</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O15" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>209.5897435862967</v>
+        <v>755.7132317698615</v>
       </c>
       <c r="C16" t="n">
-        <v>209.5897435862967</v>
+        <v>584.619859331578</v>
       </c>
       <c r="D16" t="n">
-        <v>209.5897435862967</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="E16" t="n">
-        <v>209.5897435862967</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F16" t="n">
-        <v>209.5897435862967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5463,25 +5463,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="W16" t="n">
-        <v>275.6758118380055</v>
+        <v>1018.751472472449</v>
       </c>
       <c r="X16" t="n">
-        <v>209.5897435862967</v>
+        <v>980.4489303810968</v>
       </c>
       <c r="Y16" t="n">
-        <v>209.5897435862967</v>
+        <v>755.7132317698615</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>4269.84331758475</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V17" t="n">
-        <v>3920.005762921231</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="18">
@@ -5606,13 +5606,13 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>237.3318813468599</v>
+        <v>545.3142419139889</v>
       </c>
       <c r="C19" t="n">
-        <v>237.3318813468599</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="D19" t="n">
-        <v>237.3318813468599</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5700,25 +5700,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1297.821136963575</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U19" t="n">
-        <v>1015.022989509699</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V19" t="n">
-        <v>741.1372444492208</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W19" t="n">
-        <v>462.0675799580952</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="X19" t="n">
-        <v>462.0675799580952</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="Y19" t="n">
-        <v>237.3318813468599</v>
+        <v>545.3142419139889</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5782,22 +5782,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U20" t="n">
-        <v>4494.590496051882</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1182.57754799176</v>
+        <v>857.0356069706702</v>
       </c>
       <c r="C22" t="n">
-        <v>1011.484175553476</v>
+        <v>685.9422345323867</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F22" t="n">
         <v>526.4475898552967</v>
@@ -5937,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1436.250826191383</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1436.250826191383</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1436.250826191383</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W22" t="n">
-        <v>1436.250826191383</v>
+        <v>1095.379469110987</v>
       </c>
       <c r="X22" t="n">
-        <v>1436.250826191383</v>
+        <v>857.0356069706702</v>
       </c>
       <c r="Y22" t="n">
-        <v>1370.277254385804</v>
+        <v>857.0356069706702</v>
       </c>
     </row>
     <row r="23">
@@ -6019,7 +6019,7 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U23" t="n">
         <v>4408.238733368956</v>
@@ -6068,22 +6068,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
         <v>2139.732893541123</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>136.1097701603972</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C25" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6174,25 +6174,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U25" t="n">
-        <v>1339.844446857597</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V25" t="n">
-        <v>1065.958701797119</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W25" t="n">
-        <v>786.8890373059935</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X25" t="n">
-        <v>548.5451751656769</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="Y25" t="n">
-        <v>323.8094765544416</v>
+        <v>209.5897435862967</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C26" t="n">
         <v>2139.066799289355</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4563.732881158784</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4341.526397105643</v>
       </c>
       <c r="U26" t="n">
-        <v>4405.12439279065</v>
+        <v>4084.465905365153</v>
       </c>
       <c r="V26" t="n">
-        <v>4144.752941388363</v>
+        <v>3734.628350701634</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3350.868049836802</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>2950.224652005755</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2549.287978953845</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>4051.026465773143</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>4051.026465773143</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>4051.026465773143</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>4051.026465773143</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>490.5039577458317</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6493,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>136.1097701603972</v>
+        <v>425.2478852605868</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E31" t="n">
         <v>93.2436976906228</v>
@@ -6654,19 +6654,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>1339.844446857597</v>
+        <v>1404.246863346551</v>
       </c>
       <c r="V31" t="n">
-        <v>1065.958701797119</v>
+        <v>1130.361118286073</v>
       </c>
       <c r="W31" t="n">
-        <v>786.8890373059935</v>
+        <v>851.2914537949478</v>
       </c>
       <c r="X31" t="n">
-        <v>548.5451751656769</v>
+        <v>612.9475916546312</v>
       </c>
       <c r="Y31" t="n">
-        <v>323.8094765544416</v>
+        <v>612.9475916546312</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1671.409507726974</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1257.069292243871</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>836.0388801975582</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>427.3105960903904</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>116.4020987181084</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6739,13 +6739,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6888,22 +6888,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.642594311473</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>1595.012952997039</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6937,7 +6937,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O36" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3249.132033805963</v>
+        <v>323.5179200132935</v>
       </c>
       <c r="C37" t="n">
-        <v>3249.132033805963</v>
+        <v>323.5179200132935</v>
       </c>
       <c r="D37" t="n">
-        <v>3249.132033805963</v>
+        <v>323.5179200132935</v>
       </c>
       <c r="E37" t="n">
-        <v>3249.132033805963</v>
+        <v>323.5179200132935</v>
       </c>
       <c r="F37" t="n">
-        <v>3249.132033805963</v>
+        <v>323.5179200132935</v>
       </c>
       <c r="G37" t="n">
-        <v>3249.132033805963</v>
+        <v>156.2675289388369</v>
       </c>
       <c r="H37" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>4475.79311641105</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T37" t="n">
-        <v>4236.244377387751</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U37" t="n">
-        <v>4236.244377387751</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V37" t="n">
-        <v>3962.358632327273</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="W37" t="n">
-        <v>3683.288967836147</v>
+        <v>735.9533250185732</v>
       </c>
       <c r="X37" t="n">
-        <v>3444.945105695831</v>
+        <v>735.9533250185732</v>
       </c>
       <c r="Y37" t="n">
-        <v>3436.831740200008</v>
+        <v>511.2176264073379</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7204,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4315.461670445927</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>754.331869609911</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N39" t="n">
-        <v>1627.989961721529</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4072.512383016883</v>
+        <v>431.5874612033629</v>
       </c>
       <c r="C40" t="n">
-        <v>3901.419010578599</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D40" t="n">
-        <v>3741.924365901509</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E40" t="n">
-        <v>3581.013550769829</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F40" t="n">
-        <v>3416.38242488042</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G40" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>4662.18488453114</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>4662.18488453114</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U40" t="n">
-        <v>4662.18488453114</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V40" t="n">
-        <v>4662.18488453114</v>
+        <v>1162.365081130905</v>
       </c>
       <c r="W40" t="n">
-        <v>4662.18488453114</v>
+        <v>1082.366728348959</v>
       </c>
       <c r="X40" t="n">
-        <v>4484.947788022163</v>
+        <v>844.0228662086425</v>
       </c>
       <c r="Y40" t="n">
-        <v>4260.212089410928</v>
+        <v>619.2871675974072</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455811</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C41" t="n">
-        <v>1692.113136769081</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D41" t="n">
-        <v>1287.649206862142</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E41" t="n">
-        <v>873.3089913790386</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F41" t="n">
-        <v>501.9719817977906</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G41" t="n">
-        <v>93.2436976906228</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7444,19 +7444,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.878870496807</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2462.839627293158</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C44" t="n">
-        <v>2052.715036606428</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.251106699488</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E44" t="n">
-        <v>1233.910891216385</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F44" t="n">
-        <v>812.8804791700727</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G44" t="n">
-        <v>404.1521950629048</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H44" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4304.697325272099</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V44" t="n">
-        <v>4058.401178705436</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W44" t="n">
-        <v>3674.640877840605</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X44" t="n">
-        <v>3273.997480009557</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y44" t="n">
-        <v>2873.060806957647</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="45">
@@ -7727,19 +7727,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N45" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
         <v>2139.732893541123</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>264.3370701289063</v>
+        <v>409.9955152208753</v>
       </c>
       <c r="C46" t="n">
-        <v>93.2436976906228</v>
+        <v>238.9021427825918</v>
       </c>
       <c r="D46" t="n">
-        <v>93.2436976906228</v>
+        <v>238.9021427825918</v>
       </c>
       <c r="E46" t="n">
-        <v>93.2436976906228</v>
+        <v>238.9021427825918</v>
       </c>
       <c r="F46" t="n">
-        <v>93.2436976906228</v>
+        <v>238.9021427825918</v>
       </c>
       <c r="G46" t="n">
         <v>93.2436976906228</v>
@@ -7833,25 +7833,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1476.984149219504</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1476.984149219504</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U46" t="n">
-        <v>1194.186001765628</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V46" t="n">
-        <v>1194.186001765628</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W46" t="n">
-        <v>915.1163372745027</v>
+        <v>1060.774782366472</v>
       </c>
       <c r="X46" t="n">
-        <v>676.772475134186</v>
+        <v>822.430920226155</v>
       </c>
       <c r="Y46" t="n">
-        <v>452.0367765229507</v>
+        <v>597.6952216149197</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>296.1630732760186</v>
       </c>
       <c r="O2" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>332.1773130131622</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>557.0846165901667</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8224,10 +8224,10 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
@@ -8297,16 +8297,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>173.5595280421012</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>93.75312630912927</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
@@ -8315,10 +8315,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>572.8020253569665</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
@@ -8473,7 +8473,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>97.7560403036063</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>174.1409094511113</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>303.2511867883841</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,22 +8768,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N12" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8792,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>138.8618519023701</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>491.4496229341746</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9254,16 +9254,16 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>915.4839494260226</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>55.82578278461539</v>
@@ -9488,19 +9488,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>293.7680303325975</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9716,25 +9716,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9953,25 +9953,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>204.5506456092455</v>
       </c>
       <c r="N30" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>55.82578278461539</v>
@@ -10436,22 +10436,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>55.82578278461539</v>
@@ -10673,22 +10673,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>387.4455168657486</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>574.6635313430244</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -10925,7 +10925,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,22 +11138,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11162,7 +11162,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -11375,22 +11375,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.06483528720059</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>82.68617307340614</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>170.5352159497217</v>
+        <v>198.0409068484748</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>222.499706682461</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>16.65440516068904</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23910,7 +23910,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.1514195541321</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>223.0676163851325</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>271.411891510135</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.1745055375995</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24259,10 +24259,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>3.083197172522915</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>126.945026968824</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -24384,7 +24384,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>86.11522480836749</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>36.46078111520806</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>88.57144222862024</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>181.0244246222293</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>126.945026968824</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -24894,7 +24894,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>63.75839232406477</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>62.56142803888683</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>62.56142803888736</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>88.57144222862024</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>85.71778770686592</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>214.4561097842581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>10.65670172208945</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -25608,13 +25608,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>197.0805985920879</v>
       </c>
       <c r="X40" t="n">
-        <v>60.4956979750265</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>187.9942390719856</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>88.57144222862041</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>102.5059940158881</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>21.37602652266273</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26073,7 +26073,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>40.32598979783972</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>637227.0685772062</v>
+        <v>637227.0685772061</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>637227.0685772061</v>
+        <v>637227.0685772062</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>637227.068577206</v>
+        <v>637227.0685772061</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>637227.0685772062</v>
+        <v>637227.0685772061</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>637227.0685772059</v>
+        <v>637227.0685772062</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>637227.068577206</v>
+        <v>637227.0685772062</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>637227.0685772062</v>
+        <v>637227.0685772061</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>637227.0685772061</v>
+        <v>637227.0685772062</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423494.2218843881</v>
+        <v>423494.2218843882</v>
       </c>
       <c r="C2" t="n">
-        <v>423494.2218843882</v>
+        <v>423494.221884388</v>
       </c>
       <c r="D2" t="n">
         <v>423494.2218843881</v>
       </c>
       <c r="E2" t="n">
-        <v>376543.2677956218</v>
+        <v>376543.2677956219</v>
       </c>
       <c r="F2" t="n">
-        <v>376543.2677956218</v>
+        <v>376543.267795622</v>
       </c>
       <c r="G2" t="n">
+        <v>376543.2677956221</v>
+      </c>
+      <c r="H2" t="n">
+        <v>376543.267795622</v>
+      </c>
+      <c r="I2" t="n">
+        <v>376543.2677956221</v>
+      </c>
+      <c r="J2" t="n">
+        <v>376543.2677956221</v>
+      </c>
+      <c r="K2" t="n">
+        <v>376543.2677956221</v>
+      </c>
+      <c r="L2" t="n">
+        <v>376543.2677956221</v>
+      </c>
+      <c r="M2" t="n">
+        <v>376543.267795622</v>
+      </c>
+      <c r="N2" t="n">
         <v>376543.2677956219</v>
       </c>
-      <c r="H2" t="n">
-        <v>376543.2677956219</v>
-      </c>
-      <c r="I2" t="n">
-        <v>376543.2677956219</v>
-      </c>
-      <c r="J2" t="n">
-        <v>376543.2677956218</v>
-      </c>
-      <c r="K2" t="n">
-        <v>376543.2677956219</v>
-      </c>
-      <c r="L2" t="n">
-        <v>376543.267795622</v>
-      </c>
-      <c r="M2" t="n">
-        <v>376543.2677956219</v>
-      </c>
-      <c r="N2" t="n">
-        <v>376543.267795622</v>
-      </c>
       <c r="O2" t="n">
-        <v>376543.2677956219</v>
+        <v>376543.2677956221</v>
       </c>
       <c r="P2" t="n">
-        <v>376543.267795622</v>
+        <v>376543.2677956221</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.9541809342</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>139999.3108647528</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>22509.2647740474</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>155118.3712081971</v>
       </c>
       <c r="D4" t="n">
-        <v>57848.94447198561</v>
+        <v>57848.94447198565</v>
       </c>
       <c r="E4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="F4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="G4" t="n">
         <v>738.1279301446466</v>
@@ -26453,7 +26453,7 @@
         <v>738.1279301446466</v>
       </c>
       <c r="N4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
         <v>738.1279301446466</v>
@@ -26475,7 +26475,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>99001.07135520027</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28051.27570457943</v>
+        <v>28051.27570457948</v>
       </c>
       <c r="C6" t="n">
-        <v>203006.7855976936</v>
+        <v>203006.7855976934</v>
       </c>
       <c r="D6" t="n">
-        <v>94816.73714713374</v>
+        <v>94816.73714713368</v>
       </c>
       <c r="E6" t="n">
-        <v>277970.9754396696</v>
+        <v>277790.3948470206</v>
       </c>
       <c r="F6" t="n">
-        <v>304939.9296206038</v>
+        <v>304759.3490279549</v>
       </c>
       <c r="G6" t="n">
-        <v>304939.929620604</v>
+        <v>304759.349027955</v>
       </c>
       <c r="H6" t="n">
-        <v>304939.929620604</v>
+        <v>304759.3490279549</v>
       </c>
       <c r="I6" t="n">
-        <v>304939.929620604</v>
+        <v>304759.349027955</v>
       </c>
       <c r="J6" t="n">
-        <v>168345.1288147089</v>
+        <v>168164.5482220601</v>
       </c>
       <c r="K6" t="n">
-        <v>304939.9296206039</v>
+        <v>304759.349027955</v>
       </c>
       <c r="L6" t="n">
-        <v>164940.6187558513</v>
+        <v>164760.0381632023</v>
       </c>
       <c r="M6" t="n">
-        <v>282430.6648465566</v>
+        <v>282250.0842539075</v>
       </c>
       <c r="N6" t="n">
-        <v>304939.929620604</v>
+        <v>304759.3490279548</v>
       </c>
       <c r="O6" t="n">
-        <v>304939.929620604</v>
+        <v>304759.349027955</v>
       </c>
       <c r="P6" t="n">
-        <v>304939.929620604</v>
+        <v>304759.349027955</v>
       </c>
     </row>
   </sheetData>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720842</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>90.32465279067513</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720842</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067512</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720842</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067513</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.410185659847571</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>15.12252820519075</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.9398819573491</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>12.55274815319927</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.19522188379983</v>
+        <v>15.56836874529853</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27669,19 +27669,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27785,7 +27785,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -27794,7 +27794,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>64.5721889999935</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>49.74955300684724</v>
+        <v>396.0887321237323</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28070,16 +28070,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
-        <v>120.0571446565234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="O2" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>276.3515302285468</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>500.9700927793176</v>
+      </c>
+      <c r="M3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34944,10 +34944,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>40.55973291537929</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
@@ -35035,10 +35035,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>483.6656356837494</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
@@ -35193,7 +35193,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>7.722235904454253</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>120.9475160573613</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>248.9915517855803</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N12" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>87.49261310237013</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>435.3350991233255</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>862.2905560322727</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>240.5746369388475</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>146.9863618708281</v>
       </c>
       <c r="N30" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>333.1858818629449</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37563,10 +37563,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>516.9120523430244</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
